--- a/自考/资料整理/time.xlsx
+++ b/自考/资料整理/time.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Archive\自考\资料整理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEBF18C-B44A-4DB5-BB1D-728B5F14E9ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E22463-5023-483A-8379-DC64145AC951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="1212" windowWidth="14052" windowHeight="11016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="1104" windowWidth="14052" windowHeight="11016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-4-10" sheetId="1" r:id="rId1"/>
     <sheet name="2020-01" sheetId="3" r:id="rId2"/>
-    <sheet name="书费" sheetId="2" r:id="rId3"/>
+    <sheet name="2020-08" sheetId="4" r:id="rId3"/>
+    <sheet name="书费" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="125">
   <si>
     <t>专业代码/名称</t>
   </si>
@@ -308,15 +311,36 @@
     <t>加考</t>
   </si>
   <si>
-    <t>类型序号</t>
-  </si>
-  <si>
-    <t>0802</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>04729</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>02323</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>04730</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>00040</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>03706</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>02318</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>财务报表分析</t>
+      <t>高等数学</t>
     </r>
     <r>
       <rPr>
@@ -336,7 +360,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>二</t>
+      <t>工专</t>
     </r>
     <r>
       <rPr>
@@ -350,20 +374,24 @@
     </r>
   </si>
   <si>
-    <t>00806</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>04729</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>00801</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>00022</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>04732</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>02198</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>02316</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>政治经济学</t>
+      <t>英语</t>
     </r>
     <r>
       <rPr>
@@ -383,7 +411,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>财经类</t>
+      <t>一</t>
     </r>
     <r>
       <rPr>
@@ -397,12 +425,16 @@
     </r>
   </si>
   <si>
-    <t>00009</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>00012</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>02141</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>管理会计</t>
+      <t>高级语言程序设计</t>
     </r>
     <r>
       <rPr>
@@ -422,7 +454,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>二</t>
+      <t>一</t>
     </r>
     <r>
       <rPr>
@@ -434,180 +466,18 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>00805</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>630201 金融管理  （专科）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>02323</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>02120</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>04730</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>00040</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>03706</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>02318</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>高等数学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工专</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>00022</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>04732</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>02198</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>02316</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>英语</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>00012</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>02141</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>高级语言程序设计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>00342</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>02142</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>610201 计算机应用技术 （专科）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1 月 4 日</t>
@@ -678,11 +548,124 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>线性代数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业代码/名称学历层次</t>
+  </si>
+  <si>
+    <t>4 月11 日</t>
+  </si>
+  <si>
+    <t>4 月12 日</t>
+  </si>
+  <si>
+    <r>
+      <t>高级语言程序设计(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>英语(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>高等数学(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>电子技术基础(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>12656</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -719,14 +702,6 @@
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -815,6 +790,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1281,12 +1262,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,19 +1287,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1327,271 +1305,235 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1603,14 +1545,89 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1891,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -1911,895 +1928,916 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="56" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="59" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="59" t="s">
+      <c r="H2" s="64"/>
+      <c r="I2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>630201</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="65" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="75"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="75"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="62"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="75"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="62"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4">
-      <c r="A9" s="63"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="59" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="60"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="59" t="s">
+      <c r="D14" s="64"/>
+      <c r="E14" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="59" t="s">
+      <c r="F14" s="64"/>
+      <c r="G14" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="59" t="s">
+      <c r="H14" s="64"/>
+      <c r="I14" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="60"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>610201</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="28" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24">
-      <c r="A19" s="62"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="34">
+      <c r="A19" s="73"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="33">
         <v>12656</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="62"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>630201</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="79" t="s">
+      <c r="I22" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="67" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="77"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="68"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="77"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="62"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="73"/>
+      <c r="B25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="78"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24">
-      <c r="A26" s="62"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="73"/>
+      <c r="B26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <v>12656</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="63"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="59" t="s">
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="60"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="64"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="59" t="s">
+      <c r="D31" s="64"/>
+      <c r="E31" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="59" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="60"/>
-      <c r="I31" s="59" t="s">
+      <c r="H31" s="64"/>
+      <c r="I31" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="60"/>
+      <c r="J31" s="64"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="11" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="15">
+      <c r="A33" s="14">
         <v>610201</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="J33" s="36" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="53"/>
+      <c r="C34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="22" t="s">
+      <c r="J34" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="53"/>
+      <c r="C35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="24">
-      <c r="A36" s="62"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="18" t="s">
+      <c r="A36" s="73"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36">
-      <c r="A37" s="63"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19">
+      <c r="A37" s="74"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18">
         <v>12656</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="24"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="15">
+      <c r="A38" s="14">
         <v>630201</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="F38" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="G38" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="64" t="s">
+      <c r="H38" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="64" t="s">
+      <c r="I38" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="74" t="s">
+      <c r="J38" s="65" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="75"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="66"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="75"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="66"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="62"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="73"/>
+      <c r="B41" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="75"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="66"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="62"/>
-      <c r="B42" s="18" t="s">
+      <c r="A42" s="73"/>
+      <c r="B42" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J42" s="22" t="s">
+      <c r="J42" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="36">
-      <c r="A43" s="63"/>
-      <c r="B43" s="19" t="s">
+      <c r="A43" s="74"/>
+      <c r="B43" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18">
         <v>12656</v>
       </c>
-      <c r="H43" s="19" t="s">
+      <c r="H43" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="24"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E22:E25"/>
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F22:F25"/>
@@ -2816,35 +2854,14 @@
     <mergeCell ref="J4:J7"/>
     <mergeCell ref="J22:J25"/>
     <mergeCell ref="J38:J41"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="I38:I41"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2852,368 +2869,253 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C0C67F-1130-4BCF-B957-D777D61AEE32}">
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="20" style="39" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="9" style="39"/>
-    <col min="4" max="4" width="21" style="39" customWidth="1"/>
-    <col min="5" max="5" width="9" style="39"/>
-    <col min="6" max="6" width="26.6640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="9" style="39"/>
-    <col min="8" max="8" width="18.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="9" style="39"/>
-    <col min="10" max="10" width="14.33203125" style="39" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="20" style="38" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="9" style="38"/>
+    <col min="4" max="4" width="21" style="38" customWidth="1"/>
+    <col min="5" max="5" width="9" style="38"/>
+    <col min="6" max="6" width="26.6640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="9" style="38"/>
+    <col min="8" max="8" width="18.6640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9" style="38"/>
+    <col min="10" max="10" width="14.33203125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" thickBot="1">
-      <c r="A1" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="A1" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A2" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="99" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99" t="s">
+      <c r="A2" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="101"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="98"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100" t="s">
+      <c r="F3" s="87"/>
+      <c r="G3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100" t="s">
+      <c r="H3" s="87"/>
+      <c r="I3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="102"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="98"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="47" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1">
-      <c r="A5" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="92" t="s">
+      <c r="A5" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="52" t="s">
+      <c r="C5" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1">
+      <c r="A6" s="82"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="106" t="s">
+      <c r="G6" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="82"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21.6">
+      <c r="A8" s="82"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="43">
+        <v>12656</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="108" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1">
-      <c r="A6" s="95"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="106" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="95"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="106" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="21.6">
-      <c r="A8" s="95"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="50">
-        <v>12656</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="49" t="s">
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="95"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="49" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="42" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A10" s="96"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="46" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" thickBot="1"/>
-    <row r="12" spans="1:10" ht="21.6" customHeight="1">
-      <c r="A12" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="82" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A13" s="86"/>
-      <c r="B13" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="83"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A14" s="86"/>
-      <c r="B14" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="83"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="86"/>
-      <c r="B15" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="83"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A16" s="86"/>
-      <c r="B16" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="84"/>
-    </row>
-    <row r="17" spans="1:10" ht="22.2" thickBot="1">
-      <c r="A17" s="87"/>
-      <c r="B17" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="42">
-        <v>12656</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-    </row>
-    <row r="167" ht="25.2" customHeight="1"/>
-    <row r="182" ht="25.2" customHeight="1"/>
+    <row r="161" ht="25.2" customHeight="1"/>
+    <row r="176" ht="25.2" customHeight="1"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="11">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="A5:A10"/>
@@ -3225,28 +3127,263 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619DF8E9-0C49-46A1-B863-1C62F61006C8}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="22.2" thickBot="1">
+      <c r="A1" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="110" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="111"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.2" thickBot="1">
+      <c r="A2" s="107"/>
+      <c r="B2" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="111"/>
+      <c r="E2" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="111"/>
+      <c r="G2" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="111"/>
+      <c r="I2" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="111"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" thickBot="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34.200000000000003" thickBot="1">
+      <c r="A4" s="99">
+        <v>610201</v>
+      </c>
+      <c r="B4" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="117" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="23.4" thickBot="1">
+      <c r="A5" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="113"/>
+      <c r="C5" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="118" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33" thickBot="1">
+      <c r="A6" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.8" thickBot="1">
+      <c r="A7" s="102"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="104" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="22.2" thickBot="1">
+      <c r="A8" s="102"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
+      <c r="A9" s="103"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="104" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -3257,22 +3394,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.8">
       <c r="A1" s="2"/>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="105"/>
+      <c r="G1" s="92"/>
       <c r="H1" s="4" t="s">
         <v>83</v>
       </c>
@@ -3287,22 +3424,22 @@
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="92"/>
       <c r="H2" s="4">
         <v>18</v>
       </c>
       <c r="I2" s="4">
-        <f>SUM(G3:G37)</f>
-        <v>251</v>
+        <f>SUM(G3:G21)</f>
+        <v>185.4</v>
       </c>
       <c r="J2" s="4">
         <f>SUM(H2:I2)</f>
-        <v>269</v>
+        <v>203.4</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999">
@@ -3675,353 +3812,61 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="13.8">
-      <c r="A20" s="103"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="24">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>12656</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="17.399999999999999">
-      <c r="A24" s="3">
-        <v>2</v>
-      </c>
-      <c r="B24" s="3">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="3">
-        <v>6</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="6"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.8">
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.8">
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.8">
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A25" s="3">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4729</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="6"/>
+      <c r="G25"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A26" s="3">
-        <v>4</v>
-      </c>
-      <c r="B26" s="3">
-        <v>796</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="3">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" s="6">
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="17.399999999999999">
-      <c r="A27" s="3">
-        <v>5</v>
-      </c>
-      <c r="B27" s="3">
-        <v>797</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="3">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="6"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.8">
+      <c r="G27"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A28" s="3">
-        <v>6</v>
-      </c>
-      <c r="B28" s="3">
-        <v>798</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="6"/>
+      <c r="G28"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A29" s="3">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3">
-        <v>799</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="3">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="6"/>
+      <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="3">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3">
-        <v>800</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="3">
-        <v>5</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="6"/>
+      <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A31" s="3">
-        <v>9</v>
-      </c>
-      <c r="B31" s="3">
-        <v>801</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="3">
-        <v>6</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="17.399999999999999">
-      <c r="A32" s="3">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3">
-        <v>802</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A33" s="3">
-        <v>11</v>
-      </c>
-      <c r="B33" s="3">
-        <v>803</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="3">
-        <v>6</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="3">
-        <v>12</v>
-      </c>
-      <c r="B34" s="3">
-        <v>804</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="3">
-        <v>5</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="6">
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.399999999999999">
-      <c r="A35" s="3">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3">
-        <v>805</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="3">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="17.399999999999999">
-      <c r="A36" s="3">
-        <v>14</v>
-      </c>
-      <c r="B36" s="3">
-        <v>806</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="3">
-        <v>5</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A37" s="3">
-        <v>15</v>
-      </c>
-      <c r="B37" s="3">
-        <v>807</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="3">
-        <v>6</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="6"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.8">
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="7:7" ht="14.25" customHeight="1">
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="7:7" ht="14.25" customHeight="1">
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="7:7" ht="13.8">
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="7:7" ht="13.8">
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="7:7" ht="14.25" customHeight="1">
+      <c r="G37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4033,7 +3878,7 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
